--- a/AmazonPackageProject/target/classes/utils/Amazone.xlsx
+++ b/AmazonPackageProject/target/classes/utils/Amazone.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="LoginTest" sheetId="1" r:id="rId1"/>
@@ -39,12 +39,6 @@
     <t>InvalidPhnNo</t>
   </si>
   <si>
-    <t>g.gaurav2812@gmail.com</t>
-  </si>
-  <si>
-    <t>TWF1bGlAMjgxMiQ=</t>
-  </si>
-  <si>
     <t>Hello, Gaurav</t>
   </si>
   <si>
@@ -73,6 +67,12 @@
   </si>
   <si>
     <t>Abcdef123</t>
+  </si>
+  <si>
+    <t>dfsdfhlfhd</t>
+  </si>
+  <si>
+    <t>user.example@gmail.com</t>
   </si>
 </sst>
 </file>
@@ -424,8 +424,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -463,22 +463,22 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2">
-        <v>8793100405</v>
+        <v>123456789</v>
       </c>
       <c r="G2">
         <v>1234</v>
@@ -496,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -509,36 +509,36 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
       </c>
       <c r="E1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B2">
+        <v>123456789</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
         <v>16</v>
       </c>
-      <c r="B2">
-        <v>9011288023</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
-      </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>
